--- a/experiments/tsrnn trfbf results.xlsx
+++ b/experiments/tsrnn trfbf results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linwa\OneDrive\Desktop\FYP_SWT\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Ng\Desktop\FYP_SWT\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB834A2-95BC-4470-A68C-415E836AF689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C34767-348A-4220-B474-BFB1D4FC9FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B71B007A-5EB3-4F48-8579-AC1E6F54F2C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B71B007A-5EB3-4F48-8579-AC1E6F54F2C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="14">
   <si>
     <t>London</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>DAYTON</t>
+  </si>
+  <si>
+    <t>REE</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -117,6 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,18 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1025AA49-9300-4E81-A204-801CE2E94BDD}">
-  <dimension ref="A3:J33"/>
+  <dimension ref="A3:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="E30:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -465,7 +469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -494,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -523,7 +527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -552,7 +556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -581,7 +585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -595,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -609,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -623,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -637,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -666,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -695,7 +699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -724,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -753,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -782,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -811,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -828,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -845,7 +849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -858,23 +862,23 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>2.8335188981145599E-3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>4.7215480357408503E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>4.0934246033430099E-2</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>0.115113697946071</v>
       </c>
       <c r="J25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -887,23 +891,23 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>5.8137304149568003E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>6.97750523686409E-2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>5.9297185391187598E-2</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>0.165900498628616</v>
       </c>
       <c r="J26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -916,11 +920,23 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
+      <c r="E27" s="3">
+        <v>2.8393336106091699E-3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.7980092465877498E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4.1245799511670997E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.115906000137329</v>
+      </c>
       <c r="J27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -933,11 +949,23 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
+      <c r="E28" s="3">
+        <v>5.0454344600439002E-3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6.5627172589301994E-2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5.4892864078283303E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.15030853450298301</v>
+      </c>
       <c r="J28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -950,11 +978,23 @@
       <c r="D30" t="s">
         <v>11</v>
       </c>
+      <c r="E30" s="3">
+        <v>3.2782317139208299E-3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4.9725916236639002E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4.2637795209884602E-2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.116602934896945</v>
+      </c>
       <c r="J30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -967,11 +1007,23 @@
       <c r="D31" t="s">
         <v>11</v>
       </c>
+      <c r="E31" s="3">
+        <v>5.0156963989138603E-3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6.4182080328464494E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>5.3677190095186199E-2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.14753536880016299</v>
+      </c>
       <c r="J31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -988,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1057,216 @@
         <v>9</v>
       </c>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9.7514819353818893E-3</v>
+      </c>
+      <c r="F36" s="3">
+        <v>9.0407058596610995E-2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>7.5050346553325598E-2</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.18820491433143599</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3.9933927357196801E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.19807177782058699</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.173116624355316</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.40039938688278198</v>
+      </c>
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="3">
+        <v>9.9005438387393899E-3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8.9423567056655801E-2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>7.6584301888942705E-2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.203271478414535</v>
+      </c>
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.19264759123325E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>9.8529435694217599E-2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>8.1171937286853693E-2</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.19705861806869501</v>
+      </c>
+      <c r="J39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9.0261148288845999E-3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7.42978155612945E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>6.2941707670688601E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.15351024270057601</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.0662014596164201E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9.2707507312297793E-2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>7.6103396713733604E-2</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.18245729804038999</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>